--- a/codigo_final_organizado/analisis/resultados_rankings_comparacion/ranking_modelos_MEDIA.xlsx
+++ b/codigo_final_organizado/analisis/resultados_rankings_comparacion/ranking_modelos_MEDIA.xlsx
@@ -529,7 +529,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>AREPD</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>EnCQR-LSTM</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EnCQR-LSTM</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DeepAR</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="C8" t="n">
